--- a/Diagramas_Figuras/Tabelas/dimensoes.xlsx
+++ b/Diagramas_Figuras/Tabelas/dimensoes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43756fe62afa566c/UM/MIEI/BI/BIVM/Relatorio/OLAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\UM\MIEI\BI\BIVM\DataWarehouse\Diagramas_Figuras\Tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DimData" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="DimLocal" sheetId="6" r:id="rId5"/>
     <sheet name="DimHora" sheetId="7" r:id="rId6"/>
     <sheet name="DimPeriodo" sheetId="8" r:id="rId7"/>
+    <sheet name="DimIdade" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="130">
   <si>
     <t>Caracterização da dimensão</t>
   </si>
@@ -425,6 +426,18 @@
   </si>
   <si>
     <t>id→genero→ALL</t>
+  </si>
+  <si>
+    <t>DimIdade</t>
+  </si>
+  <si>
+    <t>Idade do utilizador, em anos, no momento da compra</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>Idade do utilizador</t>
   </si>
 </sst>
 </file>
@@ -592,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -652,6 +665,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -672,26 +688,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1026,41 +1045,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="21"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
@@ -1080,24 +1099,24 @@
         <v>3</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
@@ -1293,13 +1312,13 @@
       <c r="C17" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="8">
@@ -1308,13 +1327,13 @@
       <c r="C18" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="8">
@@ -1323,21 +1342,16 @@
       <c r="C19" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D19:H19"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
@@ -1348,6 +1362,11 @@
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D19:H19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H11" r:id="rId1" display="jose@gmail.com"/>
@@ -1377,41 +1396,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="21"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
@@ -1431,13 +1450,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="32" t="s">
@@ -1644,13 +1663,13 @@
       <c r="C17" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="8">
@@ -1659,22 +1678,16 @@
       <c r="C18" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="B2:H2"/>
@@ -1682,6 +1695,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="D6:H6"/>
   </mergeCells>
   <hyperlinks>
@@ -1711,41 +1730,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="21"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
@@ -1765,13 +1784,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="32" t="s">
@@ -1955,29 +1974,29 @@
       <c r="C16" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H11" r:id="rId1" display="jose@gmail.com"/>
@@ -1991,7 +2010,7 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2006,41 +2025,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="21"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
@@ -2060,13 +2079,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="32" t="s">
@@ -2227,29 +2246,29 @@
       <c r="C15" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H11" r:id="rId1" display="jose@gmail.com"/>
@@ -2279,81 +2298,81 @@
     <col min="9" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="13.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="2:8" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="2:8" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="21"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="2:8" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="2:8" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="2:8" ht="13.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="2:8" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2376,7 +2395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>1</v>
       </c>
@@ -2399,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -2422,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="19" customFormat="1" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -2445,7 +2464,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>2</v>
       </c>
@@ -2468,7 +2487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>4</v>
       </c>
@@ -2491,7 +2510,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>5</v>
       </c>
@@ -2514,7 +2533,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>6</v>
       </c>
@@ -2570,29 +2589,29 @@
       <c r="C18" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="D17:H17"/>
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H13" r:id="rId1" display="jose@gmail.com"/>
@@ -2606,7 +2625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2624,78 +2643,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="21"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -2755,30 +2774,30 @@
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2789,7 +2808,7 @@
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B10:H11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2806,78 +2825,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="21"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -2937,30 +2956,211 @@
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="37">
+        <v>1</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
